--- a/testminiproject/testdata/Data.xlsx
+++ b/testminiproject/testdata/Data.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="School Names" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Air Force School Pune</t>
+    <t>School Names</t>
   </si>
   <si>
     <t>Akshara International School Pune</t>
